--- a/var_10.xlsx
+++ b/var_10.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$10</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -421,10 +424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +522,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -560,7 +564,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -602,7 +606,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -623,7 +627,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -648,6 +652,13 @@
       <c r="A18" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F10">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="greaterThan" val="40"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
